--- a/gmm_res.xlsx
+++ b/gmm_res.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\Inequality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Inequality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FCBB0A-E0D9-47F1-AAE8-A79D1607C86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C312973-FBBD-44CB-8F14-FEF35EFF43E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF1FE636-121C-48C6-86B8-E9280D063F29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12096" xr2:uid="{FF1FE636-121C-48C6-86B8-E9280D063F29}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECT" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="224">
   <si>
     <t>---------------------------------------------------</t>
   </si>
@@ -268,72 +268,9 @@
     <t>Hansen test of overid. restrictions: chi2(199) = 0.04 Prob &gt; chi2 = 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of observations = 127 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               avg = 5.521739 </t>
-  </si>
-  <si>
     <t xml:space="preserve">               max = 6 </t>
   </si>
   <si>
-    <t xml:space="preserve">Number of instruments = 260 </t>
-  </si>
-  <si>
-    <t>lag1_Gini_net   0.7972 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               (0.0531)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdp_gro         0.0623    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               (0.1460)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lgdp_g         -0.2147    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               (0.1633)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gov_ex         -0.1768 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               (0.0597)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade          -0.0088    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               (0.0133)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">employ_rate    -0.0781    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               (0.0413)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary_ed   -0.0037    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               (0.0087)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education_exp   0.0383 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               (0.0181)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">const           0.8956 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               (0.2928)   </t>
-  </si>
-  <si>
     <t xml:space="preserve">  FD.(employ_rate Secondary_ed Education_exp)</t>
   </si>
   <si>
@@ -343,9 +280,6 @@
     <t xml:space="preserve">  Predet vars: L(1, 6)</t>
   </si>
   <si>
-    <t>Hansen test of overid. restrictions: chi2(251) = 0.04 Prob &gt; chi2 = 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of observations = 126 </t>
   </si>
   <si>
@@ -674,6 +608,105 @@
   </si>
   <si>
     <t>Transfers in cash</t>
+  </si>
+  <si>
+    <t>Transfers in kind</t>
+  </si>
+  <si>
+    <t>Health expenditure</t>
+  </si>
+  <si>
+    <t>Education expenditure</t>
+  </si>
+  <si>
+    <t>Pensions</t>
+  </si>
+  <si>
+    <t>0.4329***</t>
+  </si>
+  <si>
+    <t>-0.5453*</t>
+  </si>
+  <si>
+    <t>-0.3367*</t>
+  </si>
+  <si>
+    <t>-0.1867*</t>
+  </si>
+  <si>
+    <t>0.8228***</t>
+  </si>
+  <si>
+    <t>-0.1635**</t>
+  </si>
+  <si>
+    <t>-0.0752***</t>
+  </si>
+  <si>
+    <t>-0.0112*</t>
+  </si>
+  <si>
+    <t>0.4898***</t>
+  </si>
+  <si>
+    <t>-0.1008</t>
+  </si>
+  <si>
+    <t>0.0760*</t>
+  </si>
+  <si>
+    <t>-0.1266</t>
+  </si>
+  <si>
+    <t>-0.1142*</t>
+  </si>
+  <si>
+    <t>0.4880***</t>
+  </si>
+  <si>
+    <t>-0.0268</t>
+  </si>
+  <si>
+    <t>-0.2845***</t>
+  </si>
+  <si>
+    <t>-0.1687*</t>
+  </si>
+  <si>
+    <t>lag1_Gini_net   0.7856 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdp_gro        -0.1281    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gov_ex         -0.1899 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade          -0.0117    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">employ_rate    -0.0860 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary_ed   -0.0044    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education_exp   0.0367 *  </t>
+  </si>
+  <si>
+    <t>const           0.9294 ***</t>
+  </si>
+  <si>
+    <t>0.7856***</t>
+  </si>
+  <si>
+    <t>-0.1899**</t>
+  </si>
+  <si>
+    <t>-0.0860*</t>
+  </si>
+  <si>
+    <t>0.0367*</t>
   </si>
 </sst>
 </file>
@@ -709,8 +742,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,743 +1064,989 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D89212-4350-4BEB-B83B-BE8246B43156}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="27" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="6048" topLeftCell="A50" activePane="bottomLeft"/>
+      <selection activeCell="M1" sqref="M1:O3"/>
+      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>4</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>58</v>
       </c>
-      <c r="N4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" t="s">
         <v>6</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" t="s">
         <v>7</v>
       </c>
-      <c r="R6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>59</v>
       </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>9</v>
       </c>
-      <c r="N8" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="M8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="N9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" t="s">
         <v>11</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" t="s">
         <v>11</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Q11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I12" t="s">
         <v>12</v>
       </c>
-      <c r="N12" t="s">
+      <c r="M12" t="s">
         <v>12</v>
       </c>
-      <c r="R12" t="s">
+      <c r="Q12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="N13" t="s">
+      <c r="M13" t="s">
         <v>13</v>
       </c>
-      <c r="R13" t="s">
+      <c r="Q13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="J14" t="s">
+      <c r="I14" t="s">
         <v>60</v>
       </c>
-      <c r="N14" t="s">
-        <v>81</v>
-      </c>
-      <c r="R14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="J15" t="s">
+      <c r="I15" t="s">
         <v>61</v>
       </c>
-      <c r="N15" t="s">
-        <v>82</v>
-      </c>
-      <c r="R15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>-5.4300000000000001E-2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="J16" t="s">
+      <c r="I16" t="s">
         <v>62</v>
       </c>
-      <c r="N16" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="J17" t="s">
+      <c r="I17" t="s">
         <v>63</v>
       </c>
-      <c r="N17" t="s">
-        <v>84</v>
-      </c>
-      <c r="R17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>-9.9699999999999997E-2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="J18" t="s">
+      <c r="I18" t="s">
         <v>64</v>
       </c>
-      <c r="N18" t="s">
-        <v>85</v>
-      </c>
-      <c r="R18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" t="s">
         <v>65</v>
       </c>
-      <c r="N19" t="s">
-        <v>86</v>
-      </c>
-      <c r="R19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>-6.3299999999999995E-2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="J20" t="s">
+      <c r="I20" t="s">
         <v>66</v>
       </c>
-      <c r="N20" t="s">
-        <v>87</v>
-      </c>
-      <c r="R20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>48</v>
       </c>
-      <c r="J21" t="s">
+      <c r="I21" t="s">
         <v>67</v>
       </c>
-      <c r="N21" t="s">
-        <v>88</v>
-      </c>
-      <c r="R21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>-1.17E-2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>49</v>
       </c>
-      <c r="J22" t="s">
+      <c r="I22" t="s">
         <v>68</v>
       </c>
-      <c r="N22" t="s">
-        <v>89</v>
-      </c>
-      <c r="R22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>50</v>
       </c>
-      <c r="J23" t="s">
+      <c r="I23" t="s">
         <v>69</v>
       </c>
-      <c r="N23" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>-4.1099999999999998E-2</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>51</v>
       </c>
-      <c r="J24" t="s">
+      <c r="I24" t="s">
         <v>70</v>
       </c>
-      <c r="N24" t="s">
-        <v>91</v>
-      </c>
-      <c r="R24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>52</v>
       </c>
-      <c r="J25" t="s">
+      <c r="I25" t="s">
         <v>71</v>
       </c>
-      <c r="N25" t="s">
-        <v>92</v>
-      </c>
-      <c r="R25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>-8.6999999999999994E-3</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>53</v>
       </c>
-      <c r="J26" t="s">
+      <c r="I26" t="s">
         <v>72</v>
       </c>
-      <c r="N26" t="s">
-        <v>93</v>
-      </c>
-      <c r="R26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>54</v>
       </c>
-      <c r="J27" t="s">
+      <c r="I27" t="s">
         <v>73</v>
       </c>
-      <c r="N27" t="s">
-        <v>94</v>
-      </c>
-      <c r="R27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>-1.84E-2</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>55</v>
       </c>
-      <c r="J28" t="s">
+      <c r="I28" t="s">
         <v>11</v>
       </c>
-      <c r="N28" t="s">
-        <v>95</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="M28" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>56</v>
       </c>
-      <c r="J29" t="s">
+      <c r="I29" t="s">
         <v>28</v>
       </c>
-      <c r="N29" t="s">
-        <v>96</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="M29">
+        <v>-0.27579999999999999</v>
+      </c>
+      <c r="Q29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="N30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>28</v>
       </c>
-      <c r="J31" t="s">
+      <c r="I31" t="s">
         <v>0</v>
       </c>
-      <c r="N31" t="s">
-        <v>98</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="M31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="J32" t="s">
+      <c r="I32" t="s">
         <v>29</v>
       </c>
-      <c r="N32" t="s">
-        <v>11</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="Q32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" t="s">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
+      <c r="I33" t="s">
         <v>30</v>
       </c>
-      <c r="N33" t="s">
-        <v>28</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="M33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s">
         <v>29</v>
       </c>
-      <c r="J34" t="s">
+      <c r="I34" t="s">
         <v>74</v>
       </c>
-      <c r="R34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" t="s">
         <v>30</v>
       </c>
-      <c r="J35" t="s">
+      <c r="I35" t="s">
         <v>32</v>
       </c>
-      <c r="N35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" t="s">
         <v>57</v>
       </c>
-      <c r="J36" t="s">
+      <c r="I36" t="s">
         <v>33</v>
       </c>
-      <c r="N36" t="s">
-        <v>29</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="M36" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
         <v>32</v>
       </c>
-      <c r="J37" t="s">
+      <c r="I37" t="s">
         <v>34</v>
       </c>
-      <c r="N37" t="s">
-        <v>30</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="M37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" t="s">
         <v>33</v>
       </c>
-      <c r="J38" t="s">
+      <c r="I38" t="s">
         <v>35</v>
       </c>
-      <c r="N38" t="s">
-        <v>99</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="M38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s">
         <v>34</v>
       </c>
-      <c r="J39" t="s">
+      <c r="I39" t="s">
         <v>0</v>
       </c>
-      <c r="N39" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="M39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
         <v>35</v>
       </c>
-      <c r="N40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" t="s">
         <v>0</v>
       </c>
-      <c r="J41" t="s">
+      <c r="I41" t="s">
         <v>36</v>
       </c>
-      <c r="N41" t="s">
-        <v>101</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="M41" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J42" t="s">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
         <v>75</v>
       </c>
-      <c r="N42" t="s">
-        <v>35</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="Q42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
         <v>76</v>
       </c>
-      <c r="N43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
+      <c r="M43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N46" t="s">
+      <c r="M44" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F49" s="1">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.10580000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-0.1361</v>
+      </c>
+      <c r="H50" s="1">
+        <v>-0.35420000000000001</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-0.12809999999999999</v>
+      </c>
+      <c r="J50" s="1">
+        <v>-0.54390000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F51" s="1">
+        <v>0.25829999999999997</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.1216</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-9.9699999999999997E-2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.26229999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F53" s="1">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-6.3299999999999995E-2</v>
+      </c>
+      <c r="J53" s="1">
+        <v>8.3500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-1.34E-2</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-1.17E-2</v>
+      </c>
+      <c r="J54" s="1">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F55" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-1.2699999999999999E-2</v>
+      </c>
+      <c r="J55" s="1">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="I56" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F57" s="1">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-8.6999999999999994E-3</v>
+      </c>
+      <c r="J57" s="1">
+        <v>5.3800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" s="1">
+        <v>-3.3599999999999998E-2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H58" s="1">
+        <v>-7.4399999999999994E-2</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J58" s="1">
+        <v>-2.7099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F59" s="1">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-1.84E-2</v>
+      </c>
+      <c r="J59" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F61" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G63" s="1">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>192</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="65" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="H65" s="1">
+        <v>4.82E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>193</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I67" s="1">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>194</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>212</v>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J69" s="1">
+        <v>5.6099999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1773,14 +2058,14 @@
       <selection activeCell="O1" sqref="O1:O48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1789,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1817,21 +2102,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="O4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1845,12 +2130,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
@@ -1859,12 +2144,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -1873,7 +2158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1884,32 +2169,32 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1923,9 +2208,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1937,7 +2222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>13</v>
       </c>
@@ -1945,259 +2230,259 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
       </c>
       <c r="O14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
       </c>
       <c r="O15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
       </c>
       <c r="O16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" t="s">
         <v>152</v>
       </c>
-      <c r="J17" t="s">
-        <v>169</v>
-      </c>
-      <c r="O17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="O22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" t="s">
         <v>153</v>
       </c>
-      <c r="J18" t="s">
-        <v>170</v>
-      </c>
-      <c r="O18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="O23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" t="s">
         <v>154</v>
       </c>
-      <c r="J19" t="s">
-        <v>171</v>
-      </c>
-      <c r="O19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="O24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" t="s">
         <v>155</v>
       </c>
-      <c r="J20" t="s">
-        <v>172</v>
-      </c>
-      <c r="O20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="O25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" t="s">
         <v>156</v>
       </c>
-      <c r="J21" t="s">
-        <v>173</v>
-      </c>
-      <c r="O21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="O26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" t="s">
         <v>157</v>
       </c>
-      <c r="J22" t="s">
-        <v>174</v>
-      </c>
-      <c r="O22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="O27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" t="s">
         <v>158</v>
       </c>
-      <c r="J23" t="s">
-        <v>175</v>
-      </c>
-      <c r="O23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="O28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" t="s">
         <v>159</v>
       </c>
-      <c r="J24" t="s">
-        <v>176</v>
-      </c>
-      <c r="O24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="O29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" t="s">
         <v>160</v>
       </c>
-      <c r="J25" t="s">
-        <v>177</v>
-      </c>
-      <c r="O25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" t="s">
-        <v>178</v>
-      </c>
-      <c r="O26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" t="s">
-        <v>162</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="O30" t="s">
         <v>179</v>
       </c>
-      <c r="O27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" t="s">
-        <v>163</v>
-      </c>
-      <c r="J28" t="s">
-        <v>180</v>
-      </c>
-      <c r="O28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" t="s">
-        <v>181</v>
-      </c>
-      <c r="O29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" t="s">
-        <v>165</v>
-      </c>
-      <c r="J30" t="s">
-        <v>182</v>
-      </c>
-      <c r="O30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
       </c>
       <c r="O31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2208,18 +2493,18 @@
         <v>28</v>
       </c>
       <c r="O32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>28</v>
       </c>
       <c r="O33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +2515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2244,7 +2529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2255,26 +2540,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="J37" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="O37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="J38" t="s">
         <v>32</v>
@@ -2283,9 +2568,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
         <v>32</v>
@@ -2297,9 +2582,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
         <v>33</v>
@@ -2308,10 +2593,10 @@
         <v>34</v>
       </c>
       <c r="O40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2325,7 +2610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2336,20 +2621,20 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="J44" t="s">
         <v>36</v>
@@ -2358,12 +2643,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="J45" t="s">
         <v>75</v>
@@ -2372,17 +2657,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O48" t="s">
         <v>75</v>
       </c>

--- a/gmm_res.xlsx
+++ b/gmm_res.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Inequality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\Inequality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C312973-FBBD-44CB-8F14-FEF35EFF43E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92523FF7-0BE0-4BEC-948B-46C9228C6771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12096" xr2:uid="{FF1FE636-121C-48C6-86B8-E9280D063F29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FF1FE636-121C-48C6-86B8-E9280D063F29}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECT" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="259">
   <si>
     <t>---------------------------------------------------</t>
   </si>
@@ -707,14 +707,140 @@
   </si>
   <si>
     <t>0.0367*</t>
+  </si>
+  <si>
+    <t>Property taxes</t>
+  </si>
+  <si>
+    <t>Indirect taxes</t>
+  </si>
+  <si>
+    <t>Income tax</t>
+  </si>
+  <si>
+    <t>Progressitvity index</t>
+  </si>
+  <si>
+    <t>Income tax*Prog. Ind.</t>
+  </si>
+  <si>
+    <t>0.5765***</t>
+  </si>
+  <si>
+    <t>-0.3242</t>
+  </si>
+  <si>
+    <t>-0.2252*</t>
+  </si>
+  <si>
+    <t>-0.2810*</t>
+  </si>
+  <si>
+    <t>0.3000***</t>
+  </si>
+  <si>
+    <t>0.4658***</t>
+  </si>
+  <si>
+    <t>-0.1680*</t>
+  </si>
+  <si>
+    <t>0.0608*</t>
+  </si>
+  <si>
+    <t>-0.2203*</t>
+  </si>
+  <si>
+    <t>0.0839*</t>
+  </si>
+  <si>
+    <t>0.0839**</t>
+  </si>
+  <si>
+    <t>0.4754***</t>
+  </si>
+  <si>
+    <t>-0.1675*</t>
+  </si>
+  <si>
+    <t>-0.1394*</t>
+  </si>
+  <si>
+    <t>0.1093***</t>
+  </si>
+  <si>
+    <t>-0.8783***</t>
+  </si>
+  <si>
+    <t>0.0350</t>
+  </si>
+  <si>
+    <t>-0.8470*</t>
+  </si>
+  <si>
+    <t>R&amp;D (% GDP)</t>
+  </si>
+  <si>
+    <t>Savings (% GDP)</t>
+  </si>
+  <si>
+    <t>R&amp;D*Savings</t>
+  </si>
+  <si>
+    <t>0.7681***</t>
+  </si>
+  <si>
+    <t>-0.2069*</t>
+  </si>
+  <si>
+    <t>-0.0677*</t>
+  </si>
+  <si>
+    <t>-0.1801*</t>
+  </si>
+  <si>
+    <t>-0.0546***</t>
+  </si>
+  <si>
+    <t>0.1354*</t>
+  </si>
+  <si>
+    <r>
+      <t>Gini net</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t-1</t>
+    </r>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hansen p-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -730,7 +856,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -738,16 +864,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1064,17 +1219,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D89212-4350-4BEB-B83B-BE8246B43156}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="6048" topLeftCell="A50" activePane="bottomLeft"/>
-      <selection activeCell="M1" sqref="M1:O3"/>
-      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
+    <sheetView topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K48" activeCellId="1" sqref="E48:E59 K48:N59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1091,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1295,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1329,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1346,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +1397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1261,7 +1414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1278,7 +1431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1295,7 +1448,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1482,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1346,7 +1499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1516,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1431,7 +1584,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1601,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1465,7 +1618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1482,7 +1635,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1499,7 +1652,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1516,7 +1669,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1550,7 +1703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1586,7 +1739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1603,7 +1756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1620,7 +1773,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1637,7 +1790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1654,7 +1807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1671,7 +1824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1688,7 +1841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>35</v>
       </c>
@@ -1713,7 +1866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -1730,7 +1883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>75</v>
       </c>
@@ -1738,7 +1891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>76</v>
       </c>
@@ -1746,7 +1899,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>75</v>
       </c>
@@ -1754,27 +1907,39 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E48" t="s">
-        <v>184</v>
-      </c>
-      <c r="F48" s="1" t="s">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F49" s="1">
         <v>9.4899999999999998E-2</v>
       </c>
@@ -1790,8 +1955,20 @@
       <c r="J49" s="1">
         <v>0.10580000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="L49" s="1">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="M49" s="1">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="N49" s="1">
+        <v>5.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>185</v>
       </c>
@@ -1810,8 +1987,20 @@
       <c r="J50" s="1">
         <v>-0.54390000000000005</v>
       </c>
-    </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L50" s="1">
+        <v>-0.1333</v>
+      </c>
+      <c r="M50" s="1">
+        <v>-0.4284</v>
+      </c>
+      <c r="N50" s="1">
+        <v>-0.2359</v>
+      </c>
+    </row>
+    <row r="51" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F51" s="1">
         <v>0.25829999999999997</v>
       </c>
@@ -1827,8 +2016,20 @@
       <c r="J51" s="1">
         <v>0.26229999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="1">
+        <v>0.2424</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.20180000000000001</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.1328</v>
+      </c>
+    </row>
+    <row r="52" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>186</v>
       </c>
@@ -1847,8 +2048,20 @@
       <c r="J52" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F53" s="1">
         <v>7.4300000000000005E-2</v>
       </c>
@@ -1864,8 +2077,20 @@
       <c r="J53" s="1">
         <v>8.3500000000000005E-2</v>
       </c>
-    </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="1">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="L53" s="1">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="M53" s="1">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="N53" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>187</v>
       </c>
@@ -1884,8 +2109,20 @@
       <c r="J54" s="1">
         <v>3.0300000000000001E-2</v>
       </c>
-    </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M54" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N54" s="1">
+        <v>-2.8E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F55" s="1">
         <v>3.9199999999999999E-2</v>
       </c>
@@ -1901,8 +2138,20 @@
       <c r="J55" s="1">
         <v>3.7100000000000001E-2</v>
       </c>
-    </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="1">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="M55" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>188</v>
       </c>
@@ -1921,8 +2170,20 @@
       <c r="J56" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F57" s="1">
         <v>5.6800000000000003E-2</v>
       </c>
@@ -1938,8 +2199,20 @@
       <c r="J57" s="1">
         <v>5.3800000000000001E-2</v>
       </c>
-    </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="1">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="L57" s="1">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="M57" s="1">
+        <v>5.62E-2</v>
+      </c>
+      <c r="N57" s="1">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>189</v>
       </c>
@@ -1958,8 +2231,20 @@
       <c r="J58" s="1">
         <v>-2.7099999999999999E-2</v>
       </c>
-    </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="1">
+        <v>-3.9100000000000003E-2</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N58" s="1">
+        <v>-1.8E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F59" s="1">
         <v>3.3500000000000002E-2</v>
       </c>
@@ -1975,8 +2260,20 @@
       <c r="J59" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="1">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="M59" s="1">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="N59" s="1">
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>190</v>
       </c>
@@ -1984,14 +2281,16 @@
         <v>198</v>
       </c>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F61" s="1">
         <v>3.7600000000000001E-2</v>
       </c>
       <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>191</v>
       </c>
@@ -1999,13 +2298,14 @@
       <c r="G62" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="5:14" x14ac:dyDescent="0.25">
       <c r="G63" s="1">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>192</v>
       </c>
@@ -2013,12 +2313,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H65" s="1">
         <v>4.82E-2</v>
       </c>
     </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>193</v>
       </c>
@@ -2026,12 +2326,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I67" s="1">
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="68" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>194</v>
       </c>
@@ -2039,9 +2339,177 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:14" x14ac:dyDescent="0.25">
       <c r="J69" s="1">
         <v>5.6099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>224</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K71" s="1">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="72" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>225</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L73" s="1">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>226</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="M75" s="1">
+        <v>0.41410000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>227</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="M77" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>228</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="M79" s="1">
+        <v>0.34539999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>247</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="1">
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>248</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>249</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N85" s="1">
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E86" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F86" s="4">
+        <v>133</v>
+      </c>
+      <c r="G86" s="4">
+        <v>128</v>
+      </c>
+      <c r="H86" s="4">
+        <v>130</v>
+      </c>
+      <c r="I86" s="4">
+        <v>130</v>
+      </c>
+      <c r="J86" s="4">
+        <v>126</v>
+      </c>
+      <c r="K86" s="4">
+        <v>134</v>
+      </c>
+      <c r="L86" s="4">
+        <v>120</v>
+      </c>
+      <c r="M86" s="4">
+        <v>133</v>
+      </c>
+      <c r="N86" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E87" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="J87" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="N87" s="7">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -2052,15 +2520,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64B6E66-BB1F-40F3-8998-444DE7D661B4}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane ySplit="6300" topLeftCell="A57"/>
+      <selection activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52:I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2074,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2088,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2116,7 +2586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2130,7 +2600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -2158,7 +2628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +2642,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2186,7 +2656,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2194,7 +2664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2208,7 +2678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -2222,7 +2692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>13</v>
       </c>
@@ -2230,7 +2700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -2244,7 +2714,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2258,7 +2728,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -2272,7 +2742,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -2286,7 +2756,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -2300,7 +2770,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -2314,7 +2784,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -2328,7 +2798,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -2342,7 +2812,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -2356,7 +2826,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -2370,7 +2840,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -2384,7 +2854,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -2398,7 +2868,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2412,7 +2882,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2426,7 +2896,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2440,7 +2910,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2454,7 +2924,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -2468,7 +2938,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -2482,7 +2952,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2496,7 +2966,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>28</v>
       </c>
@@ -2504,7 +2974,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2515,7 +2985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2529,7 +2999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2540,7 +3010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -2554,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2568,7 +3038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -2582,7 +3052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -2596,7 +3066,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2610,7 +3080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2624,7 +3094,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +3102,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -2643,7 +3113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -2657,22 +3127,341 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O48" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F53" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="G53" s="1">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>5.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-0.1333</v>
+      </c>
+      <c r="H54" s="1">
+        <v>-0.4284</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-0.2359</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F55" s="1">
+        <v>0.2424</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.20180000000000001</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.1328</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F57" s="1">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="I57" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H58" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-2.8E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F59" s="1">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F61" s="1">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-3.9100000000000003E-2</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-1.8E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F63" s="1">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="I63" s="1">
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>224</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>225</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="1">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>226</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>0.41410000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>227</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>228</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H73" s="1">
+        <v>0.34539999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>247</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="1">
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>248</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>249</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="1">
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>134</v>
+      </c>
+      <c r="G80">
+        <v>120</v>
+      </c>
+      <c r="H80">
+        <v>133</v>
+      </c>
+      <c r="I80" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>0.03</v>
+      </c>
+      <c r="G81">
+        <v>0.03</v>
+      </c>
+      <c r="H81">
+        <v>0.03</v>
+      </c>
+      <c r="I81">
+        <v>0.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>